--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Dnajb11-Prtg.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Dnajb11-Prtg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.745945467981221</v>
+        <v>9.086337666666665</v>
       </c>
       <c r="H2">
-        <v>8.745945467981221</v>
+        <v>27.259013</v>
       </c>
       <c r="I2">
-        <v>0.2915962740934517</v>
+        <v>0.2905360353722418</v>
       </c>
       <c r="J2">
-        <v>0.2915962740934517</v>
+        <v>0.2905360353722418</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.7310401382703809</v>
+        <v>0.1787656666666667</v>
       </c>
       <c r="N2">
-        <v>0.7310401382703809</v>
+        <v>0.536297</v>
       </c>
       <c r="O2">
-        <v>0.6263479022385003</v>
+        <v>0.1283890850233522</v>
       </c>
       <c r="P2">
-        <v>0.6263479022385003</v>
+        <v>0.1283890850233522</v>
       </c>
       <c r="Q2">
-        <v>6.393637184218203</v>
+        <v>1.624325210540111</v>
       </c>
       <c r="R2">
-        <v>6.393637184218203</v>
+        <v>14.618926894861</v>
       </c>
       <c r="S2">
-        <v>0.1826407145789962</v>
+        <v>0.03730165574775441</v>
       </c>
       <c r="T2">
-        <v>0.1826407145789962</v>
+        <v>0.03730165574775442</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.745945467981221</v>
+        <v>9.086337666666665</v>
       </c>
       <c r="H3">
-        <v>8.745945467981221</v>
+        <v>27.259013</v>
       </c>
       <c r="I3">
-        <v>0.2915962740934517</v>
+        <v>0.2905360353722418</v>
       </c>
       <c r="J3">
-        <v>0.2915962740934517</v>
+        <v>0.2905360353722418</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.436106962658227</v>
+        <v>0.7373906666666666</v>
       </c>
       <c r="N3">
-        <v>0.436106962658227</v>
+        <v>2.212172</v>
       </c>
       <c r="O3">
-        <v>0.3736520977614995</v>
+        <v>0.5295922576376132</v>
       </c>
       <c r="P3">
-        <v>0.3736520977614995</v>
+        <v>0.5295922576376132</v>
       </c>
       <c r="Q3">
-        <v>3.814167713615776</v>
+        <v>6.700180589581777</v>
       </c>
       <c r="R3">
-        <v>3.814167713615776</v>
+        <v>60.30162530623598</v>
       </c>
       <c r="S3">
-        <v>0.1089555595144554</v>
+        <v>0.1538656348978669</v>
       </c>
       <c r="T3">
-        <v>0.1089555595144554</v>
+        <v>0.153865634897867</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.5647318056214</v>
+        <v>9.086337666666665</v>
       </c>
       <c r="H4">
-        <v>13.5647318056214</v>
+        <v>27.259013</v>
       </c>
       <c r="I4">
-        <v>0.4522581655781979</v>
+        <v>0.2905360353722418</v>
       </c>
       <c r="J4">
-        <v>0.4522581655781979</v>
+        <v>0.2905360353722418</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7310401382703809</v>
+        <v>0.476218</v>
       </c>
       <c r="N4">
-        <v>0.7310401382703809</v>
+        <v>1.428654</v>
       </c>
       <c r="O4">
-        <v>0.6263479022385003</v>
+        <v>0.3420186573390345</v>
       </c>
       <c r="P4">
-        <v>0.6263479022385003</v>
+        <v>0.3420186573390345</v>
       </c>
       <c r="Q4">
-        <v>9.916363414782102</v>
+        <v>4.327077550944666</v>
       </c>
       <c r="R4">
-        <v>9.916363414782102</v>
+        <v>38.94369795850199</v>
       </c>
       <c r="S4">
-        <v>0.2832709532801366</v>
+        <v>0.09936874472662037</v>
       </c>
       <c r="T4">
-        <v>0.2832709532801366</v>
+        <v>0.09936874472662038</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.5647318056214</v>
+        <v>13.64094733333333</v>
       </c>
       <c r="H5">
-        <v>13.5647318056214</v>
+        <v>40.922842</v>
       </c>
       <c r="I5">
-        <v>0.4522581655781979</v>
+        <v>0.4361698741933416</v>
       </c>
       <c r="J5">
-        <v>0.4522581655781979</v>
+        <v>0.4361698741933417</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.436106962658227</v>
+        <v>0.1787656666666667</v>
       </c>
       <c r="N5">
-        <v>0.436106962658227</v>
+        <v>0.536297</v>
       </c>
       <c r="O5">
-        <v>0.3736520977614995</v>
+        <v>0.1283890850233522</v>
       </c>
       <c r="P5">
-        <v>0.3736520977614995</v>
+        <v>0.1283890850233522</v>
       </c>
       <c r="Q5">
-        <v>5.915673987022997</v>
+        <v>2.438533044008223</v>
       </c>
       <c r="R5">
-        <v>5.915673987022997</v>
+        <v>21.946797396074</v>
       </c>
       <c r="S5">
-        <v>0.1689872122980613</v>
+        <v>0.05599945106243377</v>
       </c>
       <c r="T5">
-        <v>0.1689872122980613</v>
+        <v>0.05599945106243378</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.68266024475775</v>
+        <v>13.64094733333333</v>
       </c>
       <c r="H6">
-        <v>7.68266024475775</v>
+        <v>40.922842</v>
       </c>
       <c r="I6">
-        <v>0.2561455603283503</v>
+        <v>0.4361698741933416</v>
       </c>
       <c r="J6">
-        <v>0.2561455603283503</v>
+        <v>0.4361698741933417</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7310401382703809</v>
+        <v>0.7373906666666666</v>
       </c>
       <c r="N6">
-        <v>0.7310401382703809</v>
+        <v>2.212172</v>
       </c>
       <c r="O6">
-        <v>0.6263479022385003</v>
+        <v>0.5295922576376132</v>
       </c>
       <c r="P6">
-        <v>0.6263479022385003</v>
+        <v>0.5295922576376132</v>
       </c>
       <c r="Q6">
-        <v>5.616333007612065</v>
+        <v>10.05870724809156</v>
       </c>
       <c r="R6">
-        <v>5.616333007612065</v>
+        <v>90.528365232824</v>
       </c>
       <c r="S6">
-        <v>0.1604362343793675</v>
+        <v>0.2309921883875655</v>
       </c>
       <c r="T6">
-        <v>0.1604362343793675</v>
+        <v>0.2309921883875656</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.68266024475775</v>
+        <v>13.64094733333333</v>
       </c>
       <c r="H7">
-        <v>7.68266024475775</v>
+        <v>40.922842</v>
       </c>
       <c r="I7">
-        <v>0.2561455603283503</v>
+        <v>0.4361698741933416</v>
       </c>
       <c r="J7">
-        <v>0.2561455603283503</v>
+        <v>0.4361698741933417</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.436106962658227</v>
+        <v>0.476218</v>
       </c>
       <c r="N7">
-        <v>0.436106962658227</v>
+        <v>1.428654</v>
       </c>
       <c r="O7">
-        <v>0.3736520977614995</v>
+        <v>0.3420186573390345</v>
       </c>
       <c r="P7">
-        <v>0.3736520977614995</v>
+        <v>0.3420186573390345</v>
       </c>
       <c r="Q7">
-        <v>3.350461624476413</v>
+        <v>6.496064657185333</v>
       </c>
       <c r="R7">
-        <v>3.350461624476413</v>
+        <v>58.464581914668</v>
       </c>
       <c r="S7">
-        <v>0.09570932594898285</v>
+        <v>0.1491782347433423</v>
       </c>
       <c r="T7">
-        <v>0.09570932594898285</v>
+        <v>0.1491782347433423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>8.547106333333334</v>
+      </c>
+      <c r="H8">
+        <v>25.641319</v>
+      </c>
+      <c r="I8">
+        <v>0.2732940904344165</v>
+      </c>
+      <c r="J8">
+        <v>0.2732940904344166</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1787656666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.536297</v>
+      </c>
+      <c r="O8">
+        <v>0.1283890850233522</v>
+      </c>
+      <c r="P8">
+        <v>0.1283890850233522</v>
+      </c>
+      <c r="Q8">
+        <v>1.527929161749222</v>
+      </c>
+      <c r="R8">
+        <v>13.751362455743</v>
+      </c>
+      <c r="S8">
+        <v>0.03508797821316401</v>
+      </c>
+      <c r="T8">
+        <v>0.03508797821316402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>8.547106333333334</v>
+      </c>
+      <c r="H9">
+        <v>25.641319</v>
+      </c>
+      <c r="I9">
+        <v>0.2732940904344165</v>
+      </c>
+      <c r="J9">
+        <v>0.2732940904344166</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.7373906666666666</v>
+      </c>
+      <c r="N9">
+        <v>2.212172</v>
+      </c>
+      <c r="O9">
+        <v>0.5295922576376132</v>
+      </c>
+      <c r="P9">
+        <v>0.5295922576376132</v>
+      </c>
+      <c r="Q9">
+        <v>6.302556437207556</v>
+      </c>
+      <c r="R9">
+        <v>56.723007934868</v>
+      </c>
+      <c r="S9">
+        <v>0.1447344343521807</v>
+      </c>
+      <c r="T9">
+        <v>0.1447344343521807</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>8.547106333333334</v>
+      </c>
+      <c r="H10">
+        <v>25.641319</v>
+      </c>
+      <c r="I10">
+        <v>0.2732940904344165</v>
+      </c>
+      <c r="J10">
+        <v>0.2732940904344166</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.476218</v>
+      </c>
+      <c r="N10">
+        <v>1.428654</v>
+      </c>
+      <c r="O10">
+        <v>0.3420186573390345</v>
+      </c>
+      <c r="P10">
+        <v>0.3420186573390345</v>
+      </c>
+      <c r="Q10">
+        <v>4.070285883847333</v>
+      </c>
+      <c r="R10">
+        <v>36.632572954626</v>
+      </c>
+      <c r="S10">
+        <v>0.09347167786907183</v>
+      </c>
+      <c r="T10">
+        <v>0.09347167786907185</v>
       </c>
     </row>
   </sheetData>
